--- a/Running projects/GSK Dolmen Sky Tower Clifton Karachi/PO/002- Purchase order- for FCU & WCPU.xlsx
+++ b/Running projects/GSK Dolmen Sky Tower Clifton Karachi/PO/002- Purchase order- for FCU & WCPU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\GSK Dolmen Sky Tower Clifton Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A83F3-523F-4721-B229-FF001BDF78E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBFC157-951A-40D4-8EFE-40971610FF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,29 +63,29 @@
     <t>Supply &amp; Commissioning of Ducted type Fan Coil Unit.</t>
   </si>
   <si>
-    <t>Supply Testing &amp; Commissioning of Ceiling Suspended WCP
+    <t>No</t>
+  </si>
+  <si>
+    <t>Supply Amount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Commissioing Amount</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Supply &amp; Commissioning of Ceiling Suspended WCP
 Unit.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Supply Amount</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>GST</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>Commissioing Amount</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -337,35 +337,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A16:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="F16" s="6">
-        <v>45437</v>
+        <v>45451</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -900,33 +900,33 @@
     <row r="19" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>17</v>
+      <c r="E24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -935,19 +935,19 @@
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="24">
+        <v>11</v>
+      </c>
+      <c r="E25" s="22">
         <v>647985</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <v>14800</v>
       </c>
       <c r="H25" s="14">
@@ -962,19 +962,19 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>11</v>
+      <c r="B26" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="24">
+        <v>11</v>
+      </c>
+      <c r="E26" s="22">
         <v>1650710</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <v>24600</v>
       </c>
       <c r="H26" s="14"/>
@@ -984,12 +984,12 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="29">
         <f>SUM(E25:E26)</f>
         <v>2298695</v>
@@ -1005,10 +1005,10 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="H28" s="8"/>
@@ -1018,16 +1018,16 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="26">
+      <c r="A29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="24">
         <v>574674</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="24">
         <v>0</v>
       </c>
       <c r="H29" s="8"/>
@@ -1037,16 +1037,16 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
+      <c r="A30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24">
         <v>5122</v>
       </c>
       <c r="H30" s="8"/>
@@ -1056,17 +1056,17 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="26">
+      <c r="A31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="24">
         <f>E30+E29+E27</f>
         <v>2873369</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="24">
         <f>F30+F29+F27</f>
         <v>44522</v>
       </c>
@@ -1077,17 +1077,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="27">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="25">
         <f>F31+E31</f>
         <v>2917891</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="26"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8">
         <f t="shared" ref="I32" si="4">H32*1.17</f>
